--- a/seed_data/excel/CAMP Tables - Final Draft.xlsx
+++ b/seed_data/excel/CAMP Tables - Final Draft.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="558">
   <si>
     <t>Code</t>
   </si>
@@ -321,6 +321,9 @@
     <t>jack</t>
   </si>
   <si>
+    <t>juvenile</t>
+  </si>
+  <si>
     <t>No data recorded</t>
   </si>
   <si>
@@ -330,7 +333,7 @@
     <t>Run</t>
   </si>
   <si>
-    <t xml:space="preserve">central valey spring-run (NMFS threatened) </t>
+    <t xml:space="preserve">central valley spring-run (NMFS threatened) </t>
   </si>
   <si>
     <t>chinook</t>
@@ -1844,7 +1847,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1915,6 +1918,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2459,7 +2465,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
@@ -2467,7 +2473,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
@@ -2475,7 +2481,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -2483,7 +2489,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -2491,7 +2497,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
@@ -2499,7 +2505,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -2507,7 +2513,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -2515,7 +2521,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2523,7 +2529,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -2531,7 +2537,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -2539,7 +2545,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -2547,7 +2553,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -2555,7 +2561,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2563,7 +2569,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2577,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -2579,7 +2585,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -2621,7 +2627,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -2629,7 +2635,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -2637,7 +2643,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -2645,7 +2651,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -2653,7 +2659,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -2661,7 +2667,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -2669,7 +2675,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -2677,7 +2683,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2685,7 +2691,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11">
@@ -2693,260 +2699,260 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
+        <v>147</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+        <v>148</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>12.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+        <v>149</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+        <v>150</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+        <v>151</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+        <v>152</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
+        <v>153</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+        <v>154</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20">
       <c r="A20" s="3">
         <v>19.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+        <v>156</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21">
       <c r="A21" s="3">
         <v>20.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22">
       <c r="A22" s="3">
         <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+        <v>158</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23">
       <c r="A23" s="3">
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+        <v>159</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24">
       <c r="A24" s="3">
         <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+        <v>160</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25">
       <c r="A25" s="3">
         <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+        <v>161</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26">
       <c r="A26" s="3">
         <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+        <v>162</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27">
       <c r="A27" s="3">
         <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28">
       <c r="A28" s="3">
         <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
+        <v>164</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29">
       <c r="A29" s="3">
         <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+        <v>165</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30">
       <c r="A30" s="3">
         <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+        <v>166</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
+        <v>167</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32">
       <c r="A32" s="3">
         <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
+        <v>168</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33">
       <c r="A33" s="3">
         <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
+        <v>169</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34">
       <c r="A34" s="3">
         <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
+        <v>170</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35">
       <c r="A35" s="3">
         <v>34.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
+        <v>171</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36">
       <c r="A36" s="3">
         <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
+        <v>172</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37">
       <c r="A37" s="15">
@@ -2955,52 +2961,52 @@
       <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38">
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
     </row>
     <row r="39">
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40">
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41">
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
     </row>
     <row r="42">
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43">
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44">
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
     </row>
     <row r="45">
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
     </row>
     <row r="46">
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47">
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48">
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3034,7 +3040,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -3042,7 +3048,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -3050,7 +3056,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -3058,14 +3064,14 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>251.0</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3089,13 +3095,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D1" s="8"/>
@@ -3127,10 +3133,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>176</v>
+        <v>101</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3">
@@ -3138,10 +3144,10 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="34" t="s">
         <v>178</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -3149,10 +3155,10 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="34" t="s">
         <v>180</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -3160,10 +3166,10 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="34" t="s">
         <v>182</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -3171,10 +3177,10 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="34" t="s">
         <v>184</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -3184,8 +3190,8 @@
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>95</v>
+      <c r="C7" s="36" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3223,10 +3229,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="36" t="s">
         <v>186</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3">
@@ -3234,10 +3240,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="36" t="s">
         <v>188</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -3245,10 +3251,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="36" t="s">
         <v>190</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5">
@@ -3256,10 +3262,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="36" t="s">
         <v>192</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6">
@@ -3269,8 +3275,8 @@
       <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>95</v>
+      <c r="C6" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
@@ -3308,68 +3314,68 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>1.0</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>194</v>
       </c>
+      <c r="C2" s="41" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="39">
+      <c r="A3" s="40">
         <v>2.0</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>196</v>
       </c>
+      <c r="C3" s="41" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="39">
+      <c r="A4" s="40">
         <v>3.0</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>198</v>
       </c>
+      <c r="C4" s="41" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="39">
+      <c r="A5" s="40">
         <v>4.0</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="42" t="s">
         <v>200</v>
       </c>
+      <c r="C5" s="41" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="39">
+      <c r="A6" s="40">
         <v>251.0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="43"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3391,4213 +3397,4213 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="O1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="S1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
         <v>159697.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="43"/>
+        <v>221</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+        <v>224</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+        <v>229</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>159698.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+        <v>224</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="S3" s="43"/>
+        <v>234</v>
+      </c>
+      <c r="S3" s="44"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>159700.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+        <v>224</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
+        <v>237</v>
+      </c>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>159707.0</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="R5" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="S5" s="43"/>
+        <v>240</v>
+      </c>
+      <c r="S5" s="44"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>159709.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="S6" s="43"/>
+        <v>243</v>
+      </c>
+      <c r="S6" s="44"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>159710.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="S7" s="43"/>
+        <v>246</v>
+      </c>
+      <c r="S7" s="44"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>159713.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="43"/>
+        <v>224</v>
+      </c>
+      <c r="I8" s="44"/>
       <c r="J8" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="43"/>
+        <v>249</v>
+      </c>
+      <c r="K8" s="44"/>
       <c r="L8" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="S8" s="43"/>
+        <v>250</v>
+      </c>
+      <c r="S8" s="44"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
         <v>161030.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="43"/>
+        <v>251</v>
+      </c>
+      <c r="C9" s="44"/>
       <c r="D9" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+        <v>252</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
       <c r="L9" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+        <v>253</v>
+      </c>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>161064.0</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="O10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
         <v>161067.0</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="44"/>
+      <c r="J11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="43"/>
-      <c r="L11" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="Q11" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="S11" s="43"/>
+        <v>261</v>
+      </c>
+      <c r="S11" s="44"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
         <v>161068.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="44"/>
+      <c r="J12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="S12" s="43"/>
+        <v>264</v>
+      </c>
+      <c r="S12" s="44"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>161127.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" s="43"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="S13" s="43"/>
+        <v>272</v>
+      </c>
+      <c r="S13" s="44"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
         <v>161702.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="44"/>
+      <c r="J14" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="S14" s="43"/>
+        <v>280</v>
+      </c>
+      <c r="S14" s="44"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>161738.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="S15" s="43"/>
+        <v>284</v>
+      </c>
+      <c r="S15" s="44"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
         <v>161931.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
         <v>161974.0</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>161975.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="K19" s="44"/>
+      <c r="L19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="R19" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="S19" s="43"/>
+        <v>295</v>
+      </c>
+      <c r="S19" s="44"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>161977.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="K20" s="44"/>
+      <c r="L20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="R20" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="S20" s="43"/>
+        <v>298</v>
+      </c>
+      <c r="S20" s="44"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
         <v>161979.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I21" s="44"/>
+      <c r="J21" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="K21" s="44"/>
+      <c r="L21" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="R21" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="S21" s="43"/>
+        <v>301</v>
+      </c>
+      <c r="S21" s="44"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>161980.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="K22" s="44"/>
+      <c r="L22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="R22" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S22" s="43"/>
+        <v>304</v>
+      </c>
+      <c r="S22" s="44"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>161989.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="J23" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="K23" s="44"/>
+      <c r="L23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="R23" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="S23" s="43"/>
+        <v>307</v>
+      </c>
+      <c r="S23" s="44"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>161997.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="K24" s="44"/>
+      <c r="L24" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="Q24" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="S24" s="43"/>
+        <v>311</v>
+      </c>
+      <c r="S24" s="44"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>162003.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="Q25" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="S25" s="43"/>
+        <v>316</v>
+      </c>
+      <c r="S25" s="44"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>162032.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="44"/>
       <c r="L26" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="S26" s="43"/>
+        <v>324</v>
+      </c>
+      <c r="S26" s="44"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>162033.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I27" s="44"/>
+      <c r="J27" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="S27" s="43"/>
+        <v>327</v>
+      </c>
+      <c r="S27" s="44"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>163342.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" s="43"/>
+        <v>328</v>
+      </c>
+      <c r="C28" s="44"/>
       <c r="D28" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
+        <v>330</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
+        <v>332</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>163344.0</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I29" s="44"/>
+      <c r="J29" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K29" s="44"/>
+      <c r="L29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="Q29" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="S29" s="43"/>
+        <v>336</v>
+      </c>
+      <c r="S29" s="44"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>163350.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="K30" s="43"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="S30" s="43"/>
+        <v>340</v>
+      </c>
+      <c r="S30" s="44"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>163368.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I31" s="44"/>
+      <c r="J31" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K31" s="43"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="S31" s="43"/>
+        <v>344</v>
+      </c>
+      <c r="S31" s="44"/>
     </row>
     <row r="32">
       <c r="A32" s="4">
         <v>163387.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K32" s="43"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="S32" s="43"/>
+        <v>348</v>
+      </c>
+      <c r="S32" s="44"/>
     </row>
     <row r="33">
       <c r="A33" s="4">
         <v>163517.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K33" s="43"/>
+      <c r="K33" s="44"/>
       <c r="L33" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="S33" s="43"/>
+        <v>352</v>
+      </c>
+      <c r="S33" s="44"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
         <v>163524.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="K34" s="43"/>
+      <c r="K34" s="44"/>
       <c r="L34" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="S34" s="43"/>
+        <v>356</v>
+      </c>
+      <c r="S34" s="44"/>
     </row>
     <row r="35">
       <c r="A35" s="4">
         <v>163565.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K35" s="43"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="S35" s="43"/>
+        <v>360</v>
+      </c>
+      <c r="S35" s="44"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>163569.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K36" s="43"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="S36" s="43"/>
+        <v>364</v>
+      </c>
+      <c r="S36" s="44"/>
     </row>
     <row r="37">
       <c r="A37" s="4">
         <v>163587.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="K37" s="43"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="S37" s="43"/>
+        <v>368</v>
+      </c>
+      <c r="S37" s="44"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>163589.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="K38" s="43"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="S38" s="43"/>
+        <v>372</v>
+      </c>
+      <c r="S38" s="44"/>
     </row>
     <row r="39">
       <c r="A39" s="4">
         <v>163603.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K39" s="43"/>
+      <c r="K39" s="44"/>
       <c r="L39" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="S39" s="43"/>
+        <v>376</v>
+      </c>
+      <c r="S39" s="44"/>
     </row>
     <row r="40">
       <c r="A40" s="4">
         <v>163792.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="K40" s="43"/>
+      <c r="K40" s="44"/>
       <c r="L40" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="S40" s="43"/>
+        <v>380</v>
+      </c>
+      <c r="S40" s="44"/>
     </row>
     <row r="41">
       <c r="A41" s="4">
         <v>163892.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>163908.0</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="I42" s="44"/>
+      <c r="J42" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="K42" s="44"/>
+      <c r="L42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K42" s="43"/>
-      <c r="L42" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="Q42" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="S42" s="43"/>
+        <v>387</v>
+      </c>
+      <c r="S42" s="44"/>
     </row>
     <row r="43">
       <c r="A43" s="4">
         <v>163995.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C43" s="43"/>
+        <v>388</v>
+      </c>
+      <c r="C43" s="44"/>
       <c r="D43" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
+        <v>390</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
+        <v>392</v>
+      </c>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>163998.0</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K44" s="44"/>
+      <c r="L44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="K44" s="43"/>
-      <c r="L44" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="Q44" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="S44" s="43"/>
+        <v>394</v>
+      </c>
+      <c r="S44" s="44"/>
     </row>
     <row r="45">
       <c r="A45" s="4">
         <v>164034.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
+        <v>390</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
       <c r="L45" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
+        <v>396</v>
+      </c>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
     </row>
     <row r="46">
       <c r="A46" s="4">
         <v>164037.0</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I46" s="44"/>
+      <c r="J46" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" s="44"/>
+      <c r="L46" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q46" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="R46" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="S46" s="43"/>
+        <v>399</v>
+      </c>
+      <c r="S46" s="44"/>
     </row>
     <row r="47">
       <c r="A47" s="4">
         <v>164039.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K47" s="43"/>
+      <c r="K47" s="44"/>
       <c r="L47" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="S47" s="43"/>
+        <v>402</v>
+      </c>
+      <c r="S47" s="44"/>
     </row>
     <row r="48">
       <c r="A48" s="4">
         <v>164041.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K48" s="43"/>
+      <c r="K48" s="44"/>
       <c r="L48" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="S48" s="43"/>
+        <v>405</v>
+      </c>
+      <c r="S48" s="44"/>
     </row>
     <row r="49">
       <c r="A49" s="4">
         <v>164043.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I49" s="44"/>
+      <c r="J49" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I49" s="43"/>
-      <c r="J49" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K49" s="43"/>
+      <c r="K49" s="44"/>
       <c r="L49" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="S49" s="43"/>
+        <v>408</v>
+      </c>
+      <c r="S49" s="44"/>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>165679.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="I50" s="44"/>
+      <c r="J50" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="K50" s="43"/>
+      <c r="K50" s="44"/>
       <c r="L50" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="S50" s="43"/>
+        <v>415</v>
+      </c>
+      <c r="S50" s="44"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>165877.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I51" s="44"/>
+      <c r="J51" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="K51" s="44"/>
+      <c r="L51" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q51" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K51" s="43"/>
-      <c r="L51" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>165878.0</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="K52" s="44"/>
+      <c r="L52" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="Q52" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K52" s="43"/>
-      <c r="L52" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="R52" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="S52" s="43"/>
+        <v>423</v>
+      </c>
+      <c r="S52" s="44"/>
     </row>
     <row r="53">
       <c r="A53" s="4">
         <v>165993.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K53" s="43"/>
+      <c r="K53" s="44"/>
       <c r="L53" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="S53" s="43"/>
+        <v>431</v>
+      </c>
+      <c r="S53" s="44"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>165998.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I54" s="44"/>
+      <c r="J54" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="K54" s="43"/>
+      <c r="K54" s="44"/>
       <c r="L54" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="S54" s="43"/>
+        <v>434</v>
+      </c>
+      <c r="S54" s="44"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>166365.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="I55" s="44"/>
+      <c r="J55" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I55" s="43"/>
-      <c r="J55" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K55" s="43"/>
+      <c r="K55" s="44"/>
       <c r="L55" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="S55" s="43"/>
+        <v>442</v>
+      </c>
+      <c r="S55" s="44"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
         <v>167229.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
+        <v>446</v>
+      </c>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
       <c r="L56" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
+        <v>449</v>
+      </c>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>167233.0</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I57" s="44"/>
+      <c r="J57" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" s="44"/>
+      <c r="L57" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q57" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I57" s="43"/>
-      <c r="J57" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="K57" s="43"/>
-      <c r="L57" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="R57" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="S57" s="43"/>
+        <v>452</v>
+      </c>
+      <c r="S57" s="44"/>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>167234.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I58" s="44"/>
+      <c r="J58" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I58" s="43"/>
-      <c r="J58" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K58" s="43"/>
+      <c r="K58" s="44"/>
       <c r="L58" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="S58" s="43"/>
+        <v>455</v>
+      </c>
+      <c r="S58" s="44"/>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>167680.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="I59" s="44"/>
+      <c r="J59" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K59" s="43"/>
+      <c r="K59" s="44"/>
       <c r="L59" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="S59" s="43"/>
+        <v>463</v>
+      </c>
+      <c r="S59" s="44"/>
     </row>
     <row r="60">
       <c r="A60" s="4">
         <v>168093.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C60" s="43"/>
+        <v>464</v>
+      </c>
+      <c r="C60" s="44"/>
       <c r="D60" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
+        <v>465</v>
+      </c>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
       <c r="L60" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
+        <v>466</v>
+      </c>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" s="44"/>
+      <c r="D61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="P61" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
     </row>
     <row r="62">
       <c r="A62" s="4">
         <v>168130.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
+        <v>465</v>
+      </c>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
       <c r="L62" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
+        <v>471</v>
+      </c>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>470</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I63" s="43"/>
+        <v>465</v>
+      </c>
+      <c r="I63" s="44"/>
       <c r="J63" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K63" s="43"/>
+        <v>473</v>
+      </c>
+      <c r="K63" s="44"/>
       <c r="L63" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
+        <v>471</v>
+      </c>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>168132.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I64" s="44"/>
+      <c r="J64" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I64" s="43"/>
-      <c r="J64" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="K64" s="43"/>
+      <c r="K64" s="44"/>
       <c r="L64" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="S64" s="43"/>
+        <v>476</v>
+      </c>
+      <c r="S64" s="44"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>168139.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I65" s="44"/>
+      <c r="J65" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I65" s="43"/>
-      <c r="J65" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K65" s="43"/>
+      <c r="K65" s="44"/>
       <c r="L65" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="S65" s="43"/>
+        <v>455</v>
+      </c>
+      <c r="S65" s="44"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
         <v>168141.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I66" s="44"/>
+      <c r="J66" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I66" s="43"/>
-      <c r="J66" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="K66" s="43"/>
+      <c r="K66" s="44"/>
       <c r="L66" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="S66" s="43"/>
+        <v>481</v>
+      </c>
+      <c r="S66" s="44"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>168144.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I67" s="44"/>
+      <c r="J67" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I67" s="43"/>
-      <c r="J67" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="K67" s="43"/>
+      <c r="K67" s="44"/>
       <c r="L67" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="S67" s="43"/>
+        <v>484</v>
+      </c>
+      <c r="S67" s="44"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
         <v>168154.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I68" s="44"/>
+      <c r="J68" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="K68" s="43"/>
+      <c r="K68" s="44"/>
       <c r="L68" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="S68" s="43"/>
+        <v>487</v>
+      </c>
+      <c r="S68" s="44"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>168158.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
+        <v>465</v>
+      </c>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
       <c r="L69" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
+        <v>490</v>
+      </c>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>168160.0</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I70" s="44"/>
+      <c r="J70" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K70" s="44"/>
+      <c r="L70" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q70" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I70" s="43"/>
-      <c r="J70" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K70" s="43"/>
-      <c r="L70" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="R70" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="S70" s="43"/>
+        <v>493</v>
+      </c>
+      <c r="S70" s="44"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
         <v>168161.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I71" s="44"/>
+      <c r="J71" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I71" s="43"/>
-      <c r="J71" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="K71" s="43"/>
+      <c r="K71" s="44"/>
       <c r="L71" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="S71" s="43"/>
+        <v>496</v>
+      </c>
+      <c r="S71" s="44"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>168163.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I72" s="44"/>
+      <c r="J72" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I72" s="43"/>
-      <c r="J72" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="K72" s="43"/>
+      <c r="K72" s="44"/>
       <c r="L72" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="S72" s="43"/>
+        <v>499</v>
+      </c>
+      <c r="S72" s="44"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>168165.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
+        <v>465</v>
+      </c>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
       <c r="L73" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
+        <v>502</v>
+      </c>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>168166.0</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I74" s="44"/>
+      <c r="J74" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K74" s="44"/>
+      <c r="L74" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q74" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I74" s="43"/>
-      <c r="J74" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="K74" s="43"/>
-      <c r="L74" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="R74" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="S74" s="43"/>
+        <v>505</v>
+      </c>
+      <c r="S74" s="44"/>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>168167.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I75" s="44"/>
+      <c r="J75" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I75" s="43"/>
-      <c r="J75" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="K75" s="43"/>
+      <c r="K75" s="44"/>
       <c r="L75" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="S75" s="43"/>
+        <v>508</v>
+      </c>
+      <c r="S75" s="44"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>168175.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I76" s="44"/>
+      <c r="J76" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I76" s="43"/>
-      <c r="J76" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="K76" s="43"/>
+      <c r="K76" s="44"/>
       <c r="L76" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="S76" s="43"/>
+        <v>512</v>
+      </c>
+      <c r="S76" s="44"/>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>168487.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I77" s="44"/>
+      <c r="J77" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="I77" s="43"/>
-      <c r="J77" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="K77" s="43"/>
+      <c r="K77" s="44"/>
       <c r="L77" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="S77" s="43"/>
+        <v>518</v>
+      </c>
+      <c r="S77" s="44"/>
     </row>
     <row r="78">
       <c r="A78" s="4">
         <v>171882.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="K78" s="43"/>
+      <c r="K78" s="44"/>
       <c r="L78" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="S78" s="43"/>
+        <v>525</v>
+      </c>
+      <c r="S78" s="44"/>
     </row>
     <row r="79">
       <c r="A79" s="4">
         <v>550562.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I79" s="44"/>
+      <c r="J79" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I79" s="43"/>
-      <c r="J79" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="K79" s="43"/>
+      <c r="K79" s="44"/>
       <c r="L79" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="S79" s="43"/>
+        <v>528</v>
+      </c>
+      <c r="S79" s="44"/>
     </row>
     <row r="80">
       <c r="A80" s="4">
         <v>553322.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="I80" s="44"/>
+      <c r="J80" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="I80" s="43"/>
-      <c r="J80" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="K80" s="43"/>
+      <c r="K80" s="44"/>
       <c r="L80" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="S80" s="43"/>
+        <v>534</v>
+      </c>
+      <c r="S80" s="44"/>
     </row>
     <row r="81">
       <c r="A81" s="4">
         <v>622248.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I81" s="44"/>
+      <c r="J81" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I81" s="43"/>
-      <c r="J81" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="K81" s="43"/>
+      <c r="K81" s="44"/>
       <c r="L81" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="S81" s="43"/>
+        <v>537</v>
+      </c>
+      <c r="S81" s="44"/>
     </row>
     <row r="82">
       <c r="A82" s="2">
         <v>251.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7629,7 +7635,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
@@ -7637,7 +7643,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
@@ -7645,7 +7651,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
@@ -7691,10 +7697,10 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3">
@@ -7702,10 +7708,10 @@
         <v>4.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
@@ -7716,7 +7722,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7754,10 +7760,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
@@ -7765,10 +7771,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4">
@@ -7776,10 +7782,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
@@ -7790,52 +7796,52 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12">
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15">
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16">
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17">
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18">
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19">
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20">
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8044,10 +8050,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8056,7 +8062,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3">
@@ -8064,7 +8070,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
@@ -8072,7 +8078,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5">
@@ -8080,7 +8086,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
@@ -8088,7 +8094,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7">
@@ -8096,7 +8102,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8">
@@ -8135,7 +8141,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
@@ -8143,7 +8149,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4">
@@ -8709,13 +8715,29 @@
     </row>
     <row r="10">
       <c r="A10" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
         <v>251.0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8746,10 +8768,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -8757,55 +8779,55 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19">
         <v>2.0</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>101</v>
+      <c r="B3" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19">
         <v>3.0</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>103</v>
+      <c r="B4" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19">
         <v>4.0</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>106</v>
+      <c r="B5" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
@@ -8816,10 +8838,10 @@
         <v>23</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8877,7 +8899,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -8885,7 +8907,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -8893,7 +8915,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -8901,7 +8923,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -8909,7 +8931,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -8917,7 +8939,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -8925,7 +8947,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -8933,7 +8955,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -8941,7 +8963,7 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -8949,7 +8971,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -8957,7 +8979,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -8965,7 +8987,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">

--- a/seed_data/excel/CAMP Tables - Final Draft.xlsx
+++ b/seed_data/excel/CAMP Tables - Final Draft.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="558">
   <si>
     <t>Code</t>
   </si>
@@ -8723,20 +8723,12 @@
     </row>
     <row r="11">
       <c r="A11" s="9">
-        <v>10.0</v>
+        <v>251.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9">
-        <v>251.0</v>
-      </c>
-      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>96</v>
       </c>
     </row>
